--- a/R/analysis/data/Pt_32_M1.xlsx
+++ b/R/analysis/data/Pt_32_M1.xlsx
@@ -524,7 +524,7 @@
         <v>0.96</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="O2" t="n">
         <v>0.35</v>
@@ -576,7 +576,7 @@
         <v>2.15</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.57</v>
+        <v>4.57</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
@@ -631,16 +631,16 @@
         <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>6.41</v>
+        <v>0.05</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.04</v>
+        <v>4.54</v>
       </c>
       <c r="M4" t="n">
-        <v>3.36</v>
+        <v>0.53</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.38</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
         <v>0.08</v>
@@ -700,7 +700,7 @@
         <v>1.26</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="O5" t="n">
         <v>0.46</v>
@@ -756,7 +756,7 @@
         <v>0.75</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.17</v>
+        <v>4.17</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>1.8</v>
       </c>
       <c r="K7" t="n">
-        <v>5.07</v>
+        <v>0.83</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.58</v>
+        <v>3.58</v>
       </c>
       <c r="M7" t="n">
-        <v>3.36</v>
+        <v>0.53</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.38</v>
+        <v>2.38</v>
       </c>
       <c r="O7" t="n">
         <v>0.09</v>
@@ -884,7 +884,7 @@
         <v>2.12</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
         <v>0.52</v>
@@ -938,7 +938,7 @@
         <v>1.41</v>
       </c>
       <c r="L9" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -993,16 +993,16 @@
         <v>1.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.54</v>
+        <v>0.12</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.08</v>
+        <v>3.92</v>
       </c>
       <c r="M10" t="n">
-        <v>6.01</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>0.75</v>
+        <v>4.25</v>
       </c>
       <c r="O10" t="n">
         <v>0.18</v>
@@ -1064,7 +1064,7 @@
         <v>1.79</v>
       </c>
       <c r="N11" t="n">
-        <v>-3.2</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
         <v>0.35</v>
@@ -1116,7 +1116,7 @@
         <v>1.51</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.43</v>
+        <v>4.43</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1171,16 +1171,16 @@
         <v>4.69</v>
       </c>
       <c r="K13" t="n">
-        <v>5.02</v>
+        <v>1.24</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.88</v>
+        <v>3.55</v>
       </c>
       <c r="M13" t="n">
-        <v>2.97</v>
+        <v>1.56</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0.96</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.25</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
         <v>0.35</v>
@@ -1294,7 +1294,7 @@
         <v>1.6</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.38</v>
+        <v>4.38</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="e">
@@ -1347,14 +1347,14 @@
         <v>1.41</v>
       </c>
       <c r="K16" t="n">
-        <v>5.04</v>
+        <v>1.15</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.81</v>
+        <v>3.56</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>-3.25</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
         <v>0.08</v>
@@ -1414,7 +1414,7 @@
         <v>2.07</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>1.51</v>
       </c>
       <c r="L18" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1519,14 +1519,14 @@
         <v>1.35</v>
       </c>
       <c r="K19" t="n">
-        <v>6.13</v>
+        <v>0.47</v>
       </c>
       <c r="L19" t="n">
-        <v>0.33</v>
+        <v>4.34</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
         <v>0.08</v>
@@ -1636,7 +1636,7 @@
         <v>1.89</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.5</v>
@@ -1691,10 +1691,10 @@
         <v>2.57</v>
       </c>
       <c r="K22" t="n">
-        <v>4.77</v>
+        <v>0.88</v>
       </c>
       <c r="L22" t="n">
-        <v>0.62</v>
+        <v>3.38</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>1.34</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.4</v>
+        <v>2.4</v>
       </c>
       <c r="M24" t="n">
         <v>2.08</v>
@@ -1865,16 +1865,16 @@
         <v>2.65</v>
       </c>
       <c r="K25" t="n">
-        <v>4.62</v>
+        <v>1.23</v>
       </c>
       <c r="L25" t="n">
-        <v>0.87</v>
+        <v>3.27</v>
       </c>
       <c r="M25" t="n">
-        <v>3.06</v>
+        <v>1.65</v>
       </c>
       <c r="N25" t="n">
-        <v>1.17</v>
+        <v>2.16</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>1.39</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.25</v>
+        <v>2.25</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="e">
@@ -2035,10 +2035,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>4.69</v>
+        <v>1.51</v>
       </c>
       <c r="L28" t="n">
-        <v>1.06</v>
+        <v>3.32</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="e">
